--- a/examples/experiment1/data_odenet_False.xlsx
+++ b/examples/experiment1/data_odenet_False.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="batch_size_64" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="batch_size_1.0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3007354736328125</v>
+        <v>0.5070674419403076</v>
       </c>
       <c r="C2" t="n">
         <v>32</v>
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0902</v>
+        <v>0.1021833333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0891</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3793339729309082</v>
+        <v>0.5948929786682129</v>
       </c>
       <c r="C3" t="n">
-        <v>20.00287763947754</v>
+        <v>20.28106538184927</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9807166666666667</v>
+        <v>0.9706166666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9816</v>
+        <v>0.9752999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/examples/experiment1/data_odenet_False.xlsx
+++ b/examples/experiment1/data_odenet_False.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="batch_size_1.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="percentage_1.0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5070674419403076</v>
+        <v>0.5084400177001953</v>
       </c>
       <c r="C2" t="n">
         <v>32</v>
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1021833333333333</v>
+        <v>0.1123666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>0.101</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,979 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5948929786682129</v>
+        <v>0.5734281539916992</v>
       </c>
       <c r="C3" t="n">
-        <v>20.28106538184927</v>
+        <v>20.28111738143451</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9706166666666667</v>
+        <v>0.9686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9752999999999999</v>
+        <v>0.9717</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.623605489730835</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.13071112980506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9855</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6139867305755615</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.12934800079757</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9879166666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6112110614776611</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.1293356467852</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9923333333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9927</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6273596286773682</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.12933553482103</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.99025</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9898</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6544106006622314</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.1293355338063</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.99395</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9937</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5795986652374268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.1293355337971</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9934333333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9933999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6411025524139404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.12933553379703</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9947666666666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9938</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6411294937133789</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.12933553379703</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.99305</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9917</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.637225866317749</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.12933553379703</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9957</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6666979789733887</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.12933553379703</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9959833333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6732940673828125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.12933553379703</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9961166666666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9935</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6088688373565674</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.14803288028558</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.99505</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6087348461151123</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.26134678044038</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.99735</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6466085910797119</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.2432290155282</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.99715</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9951</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5918014049530029</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20.81437548289205</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9975333333333334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9944</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.63995361328125</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.2113552854419</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9974166666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5983021259307861</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.93459509456735</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9971</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.629706859588623</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.373311306787</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.99765</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6867349147796631</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.35950776405117</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.99805</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9948</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6499266624450684</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22.08227660142454</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9964666666666666</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6742548942565918</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21.37949202236329</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9979333333333333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9957</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.727973461151123</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24.04348220304225</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9979833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9947</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.686199426651001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.76064363282066</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9976166666666667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9936</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7284154891967773</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22.16380989349705</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9977166666666667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6366665363311768</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22.40764738916875</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9963</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9923999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5770304203033447</v>
+      </c>
+      <c r="C29" t="n">
+        <v>22.23219256718662</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9976333333333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6535050868988037</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24.72824128759055</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9983833333333333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9942</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7128398418426514</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24.3162867438406</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9989333333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9952</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6788220405578613</v>
+      </c>
+      <c r="C32" t="n">
+        <v>25.99223005261676</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9982166666666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9957</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7798876762390137</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24.82317870241241</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9986833333333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9956</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7364456653594971</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26.09996819314167</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9966166666666667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6791031360626221</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26.13425092926738</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9989166666666667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9951</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.7503941059112549</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25.64235101041747</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9950666666666667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7497580051422119</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24.20148364561278</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9990666666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9956</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6845378875732422</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25.87830304256592</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9988</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9952</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7745285034179688</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.62015344339603</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9990833333333333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9955000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7338399887084961</v>
+      </c>
+      <c r="C40" t="n">
+        <v>26.16078724993879</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9938</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7449765205383301</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.13622403234619</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9989</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9956</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7766304016113281</v>
+      </c>
+      <c r="C42" t="n">
+        <v>25.63244691896402</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9989166666666667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9954</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6627049446105957</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.16328125219157</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9958</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7634403705596924</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.14613025321497</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9984499999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9943</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.755319356918335</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.16793675451275</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9984333333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6911146640777588</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26.16813438642066</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.99905</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9953</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7481105327606201</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.16813617755488</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9972666666666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9945000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.751582145690918</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26.16813619378791</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9946</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6858029365539551</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26.16813619393503</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.99885</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9941</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7138843536376953</v>
+      </c>
+      <c r="C50" t="n">
+        <v>26.14619181658503</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.99935</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9951</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.7367706298828125</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.14746734876956</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9994499999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9955000000000001</v>
       </c>
     </row>
   </sheetData>
